--- a/biology/Médecine/Ingeborg_Hochmair/Ingeborg_Hochmair.xlsx
+++ b/biology/Médecine/Ingeborg_Hochmair/Ingeborg_Hochmair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingeborg Hochmair, née le 17 janvier 1953, est une électrotechnicienne et entrepreneur autrichienne. Elle a conçu le premier implant cochléaire micro-électronique multi-canal en 1977. Elle est la cofondatrice et CEO de MED-EL qui fabrique des implants cochléaires. Elle a reçu en 2013 le Prix Albert-Lasker pour la recherche médicale clinique.
 </t>
@@ -511,7 +523,9 @@
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1979 : Prix Holzer, Université technique de Vienne
 1980 : Prix Leonardo da Vinci
@@ -519,9 +533,9 @@
 1995 : Entrepreneur de l’année
 1996 : Médaille Wilhelm Exner
 1995 : Veuve Clicquot Business Woman of the Year
-2010 : Docteur honoris causa de l'Université de médecine d'Innsbruck[1].
+2010 : Docteur honoris causa de l'Université de médecine d'Innsbruck.
 2013 : Prix Albert-Lasker pour la recherche médicale clinique
-2022 : Docteur honoris causa de l'université de Liège[2].</t>
+2022 : Docteur honoris causa de l'université de Liège.</t>
         </is>
       </c>
     </row>
@@ -549,9 +563,11 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hochmair a quatre enfants et vit avec son mari Erwin Hochmair (en) à Axams[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hochmair a quatre enfants et vit avec son mari Erwin Hochmair (en) à Axams.
 </t>
         </is>
       </c>
